--- a/Supplemental_information/Checkpoints.xlsx
+++ b/Supplemental_information/Checkpoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\papers\UBC\Outputs\data_paper\data\Supplemental_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{9B6D7BD9-2622-4C4F-A205-03524214FB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D6BDD-F792-40DA-B93F-42F1233650A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
   <si>
     <t>Savelugu Customs barrier</t>
   </si>
@@ -77,21 +77,12 @@
     <t>Fada road</t>
   </si>
   <si>
-    <t>PabrÃ© road</t>
-  </si>
-  <si>
     <t>Ouahigouya road</t>
   </si>
   <si>
-    <t>PÃ´ road</t>
-  </si>
-  <si>
     <t>Bobo road</t>
   </si>
   <si>
-    <t>LÃ©o road</t>
-  </si>
-  <si>
     <t>Loumbila road</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>Niamana</t>
   </si>
   <si>
-    <t>SÃ©nou</t>
-  </si>
-  <si>
     <t>Koulouba</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>Data collection name</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>Road check point</t>
   </si>
   <si>
@@ -233,12 +218,6 @@
     <t>Bamenda</t>
   </si>
   <si>
-    <t>active only during the first survey (peak season 2015), during the next surveys, flows were recorded without the vehicles stopping to account for peri-urban sources (longer-distance sources were accounted for at the Kassela checkpoint).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active during the hot and rainy season </t>
-  </si>
-  <si>
     <t>Port</t>
   </si>
   <si>
@@ -249,12 +228,33 @@
   </si>
   <si>
     <t>Number (map)</t>
+  </si>
+  <si>
+    <t>Active only during the first survey (peak season 2015), during the next surveys, flows were recorded without the vehicles stopping to account for peri-urban sources (longer-distance sources were accounted for at the Kassela checkpoint).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active during the hot and rainy season </t>
+  </si>
+  <si>
+    <t>Pabré road</t>
+  </si>
+  <si>
+    <t>Pô road</t>
+  </si>
+  <si>
+    <t>Léo road</t>
+  </si>
+  <si>
+    <t>Sénou</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,18 +264,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,9 +284,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,18 +592,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,24 +614,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -647,13 +640,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -661,13 +657,16 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
       <c r="B4">
         <v>2</v>
       </c>
@@ -675,10 +674,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
@@ -686,10 +688,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
       <c r="B6">
         <v>4</v>
       </c>
@@ -697,10 +702,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
       <c r="B7">
         <v>5</v>
       </c>
@@ -708,101 +716,125 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
+      <c r="C14" t="s">
+        <v>66</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -810,360 +842,456 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
+      <c r="C17" t="s">
+        <v>67</v>
       </c>
       <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
+      <c r="C18" t="s">
+        <v>68</v>
       </c>
       <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
       <c r="B30">
         <v>7</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>23</v>
+      <c r="C30" t="s">
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
       <c r="B32">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
         <v>43</v>
       </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
         <v>44</v>
       </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Supplemental_information/Checkpoints.xlsx
+++ b/Supplemental_information/Checkpoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\papers\UBC\Outputs\data_paper\data\Supplemental_information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\GitHub\food-flows\Supplemental_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D6BDD-F792-40DA-B93F-42F1233650A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A9CB62-BBF5-4848-8CED-1406963A561A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,12 +230,6 @@
     <t>Number (map)</t>
   </si>
   <si>
-    <t>Active only during the first survey (peak season 2015), during the next surveys, flows were recorded without the vehicles stopping to account for peri-urban sources (longer-distance sources were accounted for at the Kassela checkpoint).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active during the hot and rainy season </t>
-  </si>
-  <si>
     <t>Pabré road</t>
   </si>
   <si>
@@ -249,6 +243,12 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Operated only during the first survey (peak season 2015). During the following surveys, flows were recorded based on visual inspection to account for peri-urban sources (longer-distance sources were accounted for at the Kassela checkpoint).</t>
+  </si>
+  <si>
+    <t>Was used as alternative checkpoint in the lean and rainy season because the Niamana checkpoint was not operational any longer</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +626,7 @@
         <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -867,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -1007,7 +1007,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1035,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
